--- a/biology/Botanique/Pseudo-épillet/Pseudo-épillet.xlsx
+++ b/biology/Botanique/Pseudo-épillet/Pseudo-épillet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pseudo-%C3%A9pillet</t>
+          <t>Pseudo-épillet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un pseudo-épillet est un type d'inflorescence indéterminée caractéristique de certaines espèces de bambous. Ce sont des épillets qui se distinguent de l'épillet normal des Poaceae par la présence de bourgeons végétatifs à l'aisselle des glumes extérieures, qui peuvent donner naissance à de nouveaux épillets ou à des ramifications latérales[1].
-Ce terme a été employé pour la première fois par le botaniste américain,  McClure, en 1966 (The bamboos, a fresh perspective, Harvard University Press)[2].
-Le pseudo-épillet est l'unité de base de l'inflorescence chez plusieurs genres de bambous du Sud-Est asiatique : Bambusa, Dendrocalamus, Dinochloa, Fimbribambusa, Gigantochloa, Holttumochloa, Kinabaluchloa, Maclurochloa, Melocanna, Phyllostachys, Schizostachyum, Soejatmia, Sphaerobambos et  Thyrsostachys[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un pseudo-épillet est un type d'inflorescence indéterminée caractéristique de certaines espèces de bambous. Ce sont des épillets qui se distinguent de l'épillet normal des Poaceae par la présence de bourgeons végétatifs à l'aisselle des glumes extérieures, qui peuvent donner naissance à de nouveaux épillets ou à des ramifications latérales.
+Ce terme a été employé pour la première fois par le botaniste américain,  McClure, en 1966 (The bamboos, a fresh perspective, Harvard University Press).
+Le pseudo-épillet est l'unité de base de l'inflorescence chez plusieurs genres de bambous du Sud-Est asiatique : Bambusa, Dendrocalamus, Dinochloa, Fimbribambusa, Gigantochloa, Holttumochloa, Kinabaluchloa, Maclurochloa, Melocanna, Phyllostachys, Schizostachyum, Soejatmia, Sphaerobambos et  Thyrsostachys.
 </t>
         </is>
       </c>
